--- a/GBL/src/Resource/StockAccountInfo.xlsx
+++ b/GBL/src/Resource/StockAccountInfo.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
   <si>
     <t>股金帐号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +90,6 @@
   </si>
   <si>
     <t>正常</t>
-  </si>
-  <si>
-    <t>0.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>证件</t>
@@ -158,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,25 +504,25 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="20.75" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -603,37 +600,37 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
       </c>
       <c r="L2" s="3">
         <v>38044</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
       </c>
       <c r="R2">
         <v>362102</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -650,37 +647,37 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
       <c r="L3" s="3">
         <v>38044</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
       </c>
       <c r="R3">
         <v>362102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -697,37 +694,37 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
       </c>
       <c r="L4" s="3">
         <v>38044</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
       </c>
       <c r="R4">
         <v>362102</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -744,37 +741,37 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
       </c>
       <c r="L5" s="3">
         <v>38044</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
       </c>
       <c r="R5">
         <v>362102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -791,37 +788,37 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
       </c>
       <c r="L6" s="3">
         <v>38044</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>28</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>29</v>
       </c>
       <c r="R6">
         <v>362102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -838,37 +835,37 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
       </c>
       <c r="L7" s="3">
         <v>38044</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>29</v>
       </c>
       <c r="R7">
         <v>362102</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -885,37 +882,37 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>24</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
       </c>
       <c r="L8" s="3">
         <v>38044</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>28</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>29</v>
       </c>
       <c r="R8">
         <v>362102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -932,37 +929,37 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>24</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
       </c>
       <c r="L9" s="3">
         <v>38044</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>28</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>29</v>
       </c>
       <c r="R9">
         <v>362102</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -979,37 +976,37 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
       </c>
       <c r="L10" s="3">
         <v>38044</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" t="s">
         <v>27</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>28</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>29</v>
       </c>
       <c r="R10">
         <v>362102</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -1026,37 +1023,37 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
       </c>
       <c r="L11" s="3">
         <v>38044</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>29</v>
       </c>
       <c r="R11">
         <v>362102</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1073,37 +1070,37 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>24</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
       </c>
       <c r="L12" s="3">
         <v>38044</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="P12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>28</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>29</v>
       </c>
       <c r="R12">
         <v>362102</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
@@ -1120,29 +1117,29 @@
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
       </c>
       <c r="L13" s="3">
         <v>38044</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" t="s">
         <v>27</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>28</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>29</v>
       </c>
       <c r="R13">
         <v>362102</v>
